--- a/data/trans_bre/P12B1_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>60,02</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-54,87</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,7</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>471,15%</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-73,47%</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-16,64%</t>
+          <t>161,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>-89,88%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-51,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-77,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-60,5%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 100,0</t>
+          <t>-1,34; 3,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-89,41; 10,36</t>
+          <t>-7,68; -1,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-57,75; 36,53</t>
+          <t>-8,05; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-57,08; 46,76</t>
+          <t>-11,89; -0,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-5,72; 5,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; 1,29</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 50,16</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-65,69; 69,93</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-89,43; 144,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 144,14</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,43</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,69</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>136,67%</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>-58,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-16,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,63; 63,64</t>
+          <t>-4,81; 1,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 55,61</t>
+          <t>-1,38; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,47; 52,64</t>
+          <t>-1,92; 2,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 72,59</t>
+          <t>-3,73; 2,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 313,59</t>
+          <t>0,52; 4,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>-6,34; 6,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-73,01; 317,24</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,08</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>106,1%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-16,24%</t>
+          <t>97,95%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,66%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>194,12%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 51,95</t>
+          <t>-1,21; 4,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 40,03</t>
+          <t>-0,54; 3,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 49,34</t>
+          <t>-1,06; 2,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-52,26; 36,18</t>
+          <t>-1,01; 4,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,14; 836,83</t>
+          <t>-3,1; 2,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,48; 645,6</t>
+          <t>-0,43; 6,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 1095,78</t>
+          <t>-50,28; 676,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,76; 228,92</t>
+          <t>-38,37; 912,73</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-56,66; 527,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-43,67; 559,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-84,67; 310,18</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-48,67; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,59</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,54</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,17</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,19</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,83%</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,57%</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,65%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>9,73%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-8,28%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-50,89%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-18,2%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 16,08</t>
+          <t>-3,35; 2,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 19,96</t>
+          <t>-2,31; 3,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 12,88</t>
+          <t>-3,37; 2,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 39,82</t>
+          <t>-5,07; 4,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,42; 53,36</t>
+          <t>-11,99; -0,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,53; 83,02</t>
+          <t>-8,15; 3,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,6; 33,8</t>
+          <t>-61,33; 137,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 84,17</t>
+          <t>-55,3; 154,26</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-55,44; 118,54</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-54,6; 87,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-77,06; 1,62</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-61,49; 72,6</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-35,7</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-39,42</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-32,92</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-76,44%</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-58,98%</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,05%</t>
+          <t>-58,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-57,23%</t>
+          <t>-27,57%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-49,86%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-9,83%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-63,11; -7,7</t>
+          <t>-4,84; 0,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-66,69; -7,96</t>
+          <t>-4,22; 1,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 21,01</t>
+          <t>-2,02; 3,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-56,59; -4,77</t>
+          <t>-3,45; 4,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-94,22; -10,37</t>
+          <t>-8,26; 1,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-82,67; -18,14</t>
+          <t>-5,55; 4,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-59,46; 105,02</t>
+          <t>-100,0; 89,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-82,2; -9,93</t>
+          <t>-73,65; 81,4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-52,49; 234,09</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-65,44; 271,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-81,38; 35,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-63,59; 126,27</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-33,23%</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>-39,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-33,62%</t>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-63,53%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-32,3%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 5,62</t>
+          <t>-2,91; 1,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 9,46</t>
+          <t>-5,56; 2,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 16,27</t>
+          <t>0,55; 3,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 14,62</t>
+          <t>-5,99; 0,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-3,38; 4,16</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 2,08</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 162,61</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-90,52; 270,75</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-14,67</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-34,36%</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-13,65%</t>
+          <t>-11,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-34,34%</t>
+          <t>-15,28%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-21,32%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-31,09%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-12,27%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 4,92</t>
+          <t>-1,49; 0,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 0,25</t>
+          <t>-1,64; 0,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 6,86</t>
+          <t>-0,73; 1,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,48; -0,39</t>
+          <t>-2,43; 0,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-54,4; 24,94</t>
+          <t>-3,21; 0,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-56,31; 3,74</t>
+          <t>-2,76; 1,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 31,72</t>
+          <t>-48,69; 51,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 0,15</t>
+          <t>-50,66; 34,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; 88,52</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-49,57; 20,11</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-57,2; 7,55</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-43,93; 33,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
